--- a/Joker60_V3.5/production2023081701/R-bom.xlsx
+++ b/Joker60_V3.5/production2023081701/R-bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develope\Joker60_V3.5\Joker60_V3.5\production2023081701\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Develope\Joker60_V3.5\Joker60_V3.5\production2023081701\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A7DC6B6F-BD61-4FCA-A271-EFC49BD04E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40FB64F-DAFF-48F9-AC16-3E5C946387D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bom" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>22uF</t>
   </si>
   <si>
-    <t>C15, C17</t>
-  </si>
-  <si>
     <t>0.1uF</t>
   </si>
   <si>
@@ -215,12 +212,16 @@
   </si>
   <si>
     <t>25Mhz</t>
+  </si>
+  <si>
+    <t>3=</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1174,20 +1175,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="81.73046875" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1274,9 +1275,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>603</v>
@@ -1285,15 +1286,15 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1302,9 +1303,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>603</v>
@@ -1313,26 +1314,26 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>1206</v>
@@ -1341,12 +1342,12 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>805</v>
@@ -1355,82 +1356,82 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B18" s="1">
         <v>603</v>
@@ -1439,12 +1440,12 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="B19" s="1">
         <v>603</v>
@@ -1453,12 +1454,12 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B20" s="1">
         <v>805</v>
@@ -1467,77 +1468,77 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
       </c>
       <c r="C21">
         <v>61</v>
       </c>
       <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
